--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter06/Pivot_06_02.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter06/Pivot_06_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB1D065-AAD0-4BB0-8B87-8CE8D44A54FA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBDF3AF-E822-4CD4-9082-113D780B3013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="251">
   <si>
     <t>OrderNum</t>
   </si>
@@ -785,13 +785,16 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Sum of Quantity</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
   </si>
 </sst>
 </file>
@@ -855,10 +858,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -885,7 +888,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -900,33 +903,6 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -958,6 +934,309 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -971,11 +1250,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Batteries</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -992,53 +1271,173 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$3:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>Batteries</c:v>
+                  <c:v>Alabama</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Grid Tie Inverters</c:v>
+                  <c:v>Alaska</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Landscape lighting</c:v>
+                  <c:v>California</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lightbulbs</c:v>
+                  <c:v>Colorado</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Solar panels</c:v>
+                  <c:v>Connecticut</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Wind harvester</c:v>
+                  <c:v>District of Columbia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Florida</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Georgia</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Illinois</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Indiana</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Iowa</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Kansas</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Kentucky</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Louisiana</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Maryland</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Massachusetts</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Michigan</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Minnesota</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Nevada</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>New Jersey</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>New York</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>North Carolina</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>North Dakota</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Ohio</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Oklahoma</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Pennsylvania</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Tennessee</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Texas</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Wisconsin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:f>Sheet1!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>486</c:v>
-                </c:pt>
+                <c:ptCount val="31"/>
                 <c:pt idx="1">
-                  <c:v>207</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>281</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>739</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>596</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>405</c:v>
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,6 +1445,1003 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-7090-4A9B-B8C4-7A9C075101B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grid Tie Inverters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Alabama</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alaska</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>California</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Colorado</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Connecticut</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>District of Columbia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Florida</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Georgia</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Illinois</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Indiana</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Iowa</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Kansas</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Kentucky</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Louisiana</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Maryland</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Massachusetts</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Michigan</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Minnesota</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Nevada</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>New Jersey</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>New York</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>North Carolina</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>North Dakota</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Ohio</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Oklahoma</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Pennsylvania</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Tennessee</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Texas</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Wisconsin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BBEB-46CE-B685-C2E28680B140}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Landscape lighting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Alabama</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alaska</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>California</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Colorado</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Connecticut</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>District of Columbia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Florida</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Georgia</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Illinois</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Indiana</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Iowa</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Kansas</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Kentucky</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Louisiana</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Maryland</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Massachusetts</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Michigan</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Minnesota</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Nevada</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>New Jersey</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>New York</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>North Carolina</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>North Dakota</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Ohio</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Oklahoma</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Pennsylvania</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Tennessee</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Texas</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Wisconsin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BBEB-46CE-B685-C2E28680B140}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lightbulbs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Alabama</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alaska</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>California</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Colorado</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Connecticut</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>District of Columbia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Florida</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Georgia</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Illinois</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Indiana</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Iowa</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Kansas</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Kentucky</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Louisiana</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Maryland</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Massachusetts</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Michigan</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Minnesota</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Nevada</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>New Jersey</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>New York</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>North Carolina</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>North Dakota</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Ohio</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Oklahoma</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Pennsylvania</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Tennessee</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Texas</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Wisconsin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BBEB-46CE-B685-C2E28680B140}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solar panels</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Alabama</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alaska</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>California</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Colorado</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Connecticut</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>District of Columbia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Florida</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Georgia</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Illinois</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Indiana</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Iowa</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Kansas</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Kentucky</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Louisiana</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Maryland</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Massachusetts</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Michigan</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Minnesota</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Nevada</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>New Jersey</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>New York</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>North Carolina</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>North Dakota</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Ohio</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Oklahoma</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Pennsylvania</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Tennessee</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Texas</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Wisconsin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BBEB-46CE-B685-C2E28680B140}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wind harvester</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Alabama</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alaska</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>California</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Colorado</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Connecticut</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>District of Columbia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Florida</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Georgia</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Illinois</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Indiana</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Iowa</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Kansas</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Kentucky</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Louisiana</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Maryland</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Massachusetts</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Michigan</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Minnesota</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Nevada</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>New Jersey</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>New York</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>North Carolina</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>North Dakota</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Ohio</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Oklahoma</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Pennsylvania</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Tennessee</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Texas</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Wisconsin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BBEB-46CE-B685-C2E28680B140}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1100,7 +2496,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="342374224"/>
@@ -1156,7 +2552,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="342377832"/>
@@ -1195,7 +2591,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1232,7 +2628,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5488,12 +6884,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{216EF041-4E39-4D1B-B483-97B90A5F0C33}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{216EF041-4E39-4D1B-B483-97B90A5F0C33}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:H34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="32">
         <item x="10"/>
         <item x="16"/>
@@ -5548,7 +6944,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="7">
         <item x="2"/>
         <item x="1"/>
@@ -5586,9 +6982,110 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="32">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
     <field x="4"/>
-  </rowFields>
-  <rowItems count="7">
+  </colFields>
+  <colItems count="7">
     <i>
       <x/>
     </i>
@@ -5610,19 +7107,76 @@
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Quantity" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="6">
     <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -5663,7 +7217,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5959,20 +7513,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CD218B-6948-446A-915A-E254E9BF9ED6}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="21" width="10" bestFit="1" customWidth="1"/>
@@ -6024,67 +7578,737 @@
     <col min="230" max="230" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="2">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="2">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2">
+        <v>105</v>
+      </c>
+      <c r="F5" s="2">
+        <v>114</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="2">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2">
+        <v>58</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="2">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>42</v>
+      </c>
+      <c r="F13" s="2">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="2">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>17</v>
+      </c>
+      <c r="G17" s="2">
+        <v>18</v>
+      </c>
+      <c r="H17" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="2">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>41</v>
+      </c>
+      <c r="G19" s="2">
+        <v>13</v>
+      </c>
+      <c r="H19" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2">
+        <v>32</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>25</v>
+      </c>
+      <c r="G22" s="2">
+        <v>16</v>
+      </c>
+      <c r="H22" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="2">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="2">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2">
+        <v>48</v>
+      </c>
+      <c r="F24" s="2">
+        <v>21</v>
+      </c>
+      <c r="G24" s="2">
+        <v>38</v>
+      </c>
+      <c r="H24" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
+        <v>41</v>
+      </c>
+      <c r="F26" s="2">
+        <v>17</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="2">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2">
+        <v>37</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
+        <v>69</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>10</v>
+      </c>
+      <c r="H27" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="2">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" s="2">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>28</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>7</v>
+      </c>
+      <c r="H29" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="2">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>7</v>
+      </c>
+      <c r="F30" s="2">
+        <v>43</v>
+      </c>
+      <c r="G30" s="2">
+        <v>23</v>
+      </c>
+      <c r="H30" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44</v>
+      </c>
+      <c r="C31" s="2">
+        <v>23</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>67</v>
+      </c>
+      <c r="F31" s="2">
+        <v>8</v>
+      </c>
+      <c r="G31" s="2">
+        <v>58</v>
+      </c>
+      <c r="H31" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="2">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2">
+        <v>41</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>27</v>
+      </c>
+      <c r="F33" s="2">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2">
+        <v>17</v>
+      </c>
+      <c r="H33" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="2">
         <v>486</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="C34" s="2">
         <v>207</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="D34" s="2">
         <v>281</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="E34" s="2">
         <v>739</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="F34" s="2">
         <v>596</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="G34" s="2">
         <v>405</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="H34" s="2">
         <v>2714</v>
       </c>
     </row>
@@ -6102,7 +8326,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
